--- a/requirements_file/markers/brain/mature.xlsx
+++ b/requirements_file/markers/brain/mature.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JSEQ_scRNAseq\requirements_file\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F620106-11A9-43AE-AB5B-C1F6139990E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
     <sheet name="types" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>+GAD1</t>
   </si>
@@ -58,45 +52,12 @@
     <t>OPC</t>
   </si>
   <si>
-    <t>VIP</t>
-  </si>
-  <si>
-    <t>SST</t>
-  </si>
-  <si>
-    <t>PVALB</t>
-  </si>
-  <si>
-    <t>TYROBP</t>
-  </si>
-  <si>
-    <t>PDGFRA</t>
-  </si>
-  <si>
-    <t>OPALIN</t>
-  </si>
-  <si>
-    <t>NOSTRIN</t>
-  </si>
-  <si>
     <t>+NOSTRIN</t>
   </si>
   <si>
     <t>+TYROBP</t>
   </si>
   <si>
-    <t>CCK</t>
-  </si>
-  <si>
-    <t>CALB1</t>
-  </si>
-  <si>
-    <t>CALB2</t>
-  </si>
-  <si>
-    <t>NPY</t>
-  </si>
-  <si>
     <t>+C1QC</t>
   </si>
   <si>
@@ -115,63 +76,15 @@
     <t>+SLC6A4</t>
   </si>
   <si>
-    <t>C1QC</t>
-  </si>
-  <si>
-    <t>AQP4</t>
-  </si>
-  <si>
-    <t>GAL</t>
-  </si>
-  <si>
-    <t>TAC1</t>
-  </si>
-  <si>
     <t>Ependymal</t>
   </si>
   <si>
     <t>+FOXJ1</t>
   </si>
   <si>
-    <t>NMU</t>
-  </si>
-  <si>
-    <t>NTS</t>
-  </si>
-  <si>
-    <t>AVP</t>
-  </si>
-  <si>
-    <t>PENK</t>
-  </si>
-  <si>
     <t>+SLC32A1</t>
   </si>
   <si>
-    <t>NPS</t>
-  </si>
-  <si>
-    <t>CARTPT</t>
-  </si>
-  <si>
-    <t>OXT</t>
-  </si>
-  <si>
-    <t>GNRH1</t>
-  </si>
-  <si>
-    <t>TRH</t>
-  </si>
-  <si>
-    <t>POMC</t>
-  </si>
-  <si>
-    <t>AGRP</t>
-  </si>
-  <si>
-    <t>FOXJ1</t>
-  </si>
-  <si>
     <t>Macrophages</t>
   </si>
   <si>
@@ -187,33 +100,18 @@
     <t>+DBH</t>
   </si>
   <si>
-    <t>VTN</t>
-  </si>
-  <si>
     <t>Pericytes</t>
   </si>
   <si>
     <t>+VTN</t>
   </si>
   <si>
-    <t>CRH</t>
-  </si>
-  <si>
     <t>+MRC1</t>
   </si>
   <si>
     <t>+CLDN5</t>
   </si>
   <si>
-    <t>MRC1</t>
-  </si>
-  <si>
-    <t>CLDN5</t>
-  </si>
-  <si>
-    <t>NPVF</t>
-  </si>
-  <si>
     <t>+SLC5A8</t>
   </si>
   <si>
@@ -226,12 +124,6 @@
     <t>+CSPG4</t>
   </si>
   <si>
-    <t>CSPG4</t>
-  </si>
-  <si>
-    <t>DCN</t>
-  </si>
-  <si>
     <t>Fibroblast</t>
   </si>
   <si>
@@ -247,9 +139,6 @@
     <t>+SLC1A3</t>
   </si>
   <si>
-    <t>SLC1A3</t>
-  </si>
-  <si>
     <t>+NR4A2</t>
   </si>
   <si>
@@ -259,123 +148,54 @@
     <t>+CX3CR1</t>
   </si>
   <si>
-    <t>CX3CR1</t>
-  </si>
-  <si>
-    <t>NPW</t>
-  </si>
-  <si>
     <t>+PPP1R1B</t>
   </si>
   <si>
-    <t>PPP1R1B</t>
-  </si>
-  <si>
     <t>+DIO2</t>
   </si>
   <si>
-    <t>DIO2</t>
-  </si>
-  <si>
     <t>Bergamann</t>
   </si>
   <si>
     <t>+GDF10</t>
   </si>
   <si>
-    <t>GDF10</t>
-  </si>
-  <si>
     <t>+TMEM119</t>
   </si>
   <si>
-    <t>TMEM119</t>
-  </si>
-  <si>
-    <t>TAC2</t>
-  </si>
-  <si>
-    <t>CORT</t>
-  </si>
-  <si>
-    <t>PDYN</t>
-  </si>
-  <si>
-    <t>PNOC</t>
-  </si>
-  <si>
-    <t>GRP</t>
-  </si>
-  <si>
-    <t>RLN1</t>
-  </si>
-  <si>
-    <t>ADCYAP1</t>
-  </si>
-  <si>
-    <t>NMB</t>
-  </si>
-  <si>
     <t>+CCDC153</t>
   </si>
   <si>
-    <t>CCDC153</t>
-  </si>
-  <si>
     <t>Mural</t>
   </si>
   <si>
     <t>+MUSTN1</t>
   </si>
   <si>
-    <t>MUSTN1</t>
-  </si>
-  <si>
     <t>NPCs</t>
   </si>
   <si>
     <t>GPCs</t>
   </si>
   <si>
-    <t>GBX2</t>
-  </si>
-  <si>
     <t>+TTR</t>
   </si>
   <si>
-    <t>TTR</t>
-  </si>
-  <si>
     <t>NSCs</t>
   </si>
   <si>
     <t>+SOX2</t>
   </si>
   <si>
-    <t>SOX2</t>
-  </si>
-  <si>
     <t>+MAG</t>
   </si>
   <si>
-    <t>MAG</t>
-  </si>
-  <si>
     <t>+GPR50</t>
   </si>
   <si>
-    <t>GPR50</t>
-  </si>
-  <si>
-    <t>MYOC</t>
-  </si>
-  <si>
     <t>+MYOC</t>
   </si>
   <si>
-    <t>SNX5</t>
-  </si>
-  <si>
     <t>GABAergic</t>
   </si>
   <si>
@@ -400,33 +220,6 @@
     <t>Nitrinergic</t>
   </si>
   <si>
-    <t>OPRK1</t>
-  </si>
-  <si>
-    <t>PTH1R</t>
-  </si>
-  <si>
-    <t>VIPR1</t>
-  </si>
-  <si>
-    <t>VIPR2</t>
-  </si>
-  <si>
-    <t>OPRD1</t>
-  </si>
-  <si>
-    <t>PAX7</t>
-  </si>
-  <si>
-    <t>FOXG1</t>
-  </si>
-  <si>
-    <t>HOXA1</t>
-  </si>
-  <si>
-    <t>KCNJ8</t>
-  </si>
-  <si>
     <t>Golgi</t>
   </si>
   <si>
@@ -436,15 +229,9 @@
     <t>+AGT</t>
   </si>
   <si>
-    <t>AGT</t>
-  </si>
-  <si>
     <t>+LMX1A</t>
   </si>
   <si>
-    <t>LMX1A</t>
-  </si>
-  <si>
     <t>+PCP2</t>
   </si>
   <si>
@@ -454,24 +241,12 @@
     <t>+RGS5</t>
   </si>
   <si>
-    <t>RGS5</t>
-  </si>
-  <si>
-    <t>TAC3</t>
-  </si>
-  <si>
     <t>+MOG</t>
   </si>
   <si>
     <t>+OLIG2</t>
   </si>
   <si>
-    <t>OLIG2</t>
-  </si>
-  <si>
-    <t>MOG</t>
-  </si>
-  <si>
     <t>+FOXG1</t>
   </si>
   <si>
@@ -484,182 +259,17 @@
     <t>+GBX2</t>
   </si>
   <si>
-    <t>PYY</t>
-  </si>
-  <si>
-    <t>RLN2</t>
-  </si>
-  <si>
-    <t>RLN3</t>
-  </si>
-  <si>
-    <t>PTH</t>
-  </si>
-  <si>
-    <t>GNRH2</t>
-  </si>
-  <si>
-    <t>HCRT1</t>
-  </si>
-  <si>
-    <t>HCRT2</t>
-  </si>
-  <si>
-    <t>GALR1</t>
-  </si>
-  <si>
-    <t>GALR2</t>
-  </si>
-  <si>
-    <t>GALR3</t>
-  </si>
-  <si>
-    <t>NMUR1</t>
-  </si>
-  <si>
-    <t>NMUR2</t>
-  </si>
-  <si>
-    <t>AVPR1A</t>
-  </si>
-  <si>
-    <t>AVPR1B</t>
-  </si>
-  <si>
-    <t>AVPR2</t>
-  </si>
-  <si>
-    <t>OXTR</t>
-  </si>
-  <si>
-    <t>GNRHR1</t>
-  </si>
-  <si>
-    <t>GNRHR2</t>
-  </si>
-  <si>
-    <t>HCRTR1</t>
-  </si>
-  <si>
-    <t>HCRTR2</t>
-  </si>
-  <si>
-    <t>MC3R</t>
-  </si>
-  <si>
-    <t>MC4R</t>
-  </si>
-  <si>
-    <t>NPSR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPFFR1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPFFR2 </t>
-  </si>
-  <si>
-    <t>NPBWR1</t>
-  </si>
-  <si>
-    <t>NPBWR2</t>
-  </si>
-  <si>
-    <t>OPRL1</t>
-  </si>
-  <si>
-    <t>SSTR1</t>
-  </si>
-  <si>
-    <t>SSTR2</t>
-  </si>
-  <si>
-    <t>SSTR3</t>
-  </si>
-  <si>
-    <t>SSTR4</t>
-  </si>
-  <si>
-    <t>SSTR5</t>
-  </si>
-  <si>
-    <t>NPYR1</t>
-  </si>
-  <si>
-    <t>NPY2R</t>
-  </si>
-  <si>
-    <t>NPY4R</t>
-  </si>
-  <si>
-    <t>NPY5R</t>
-  </si>
-  <si>
-    <t>GRPR</t>
-  </si>
-  <si>
-    <t>CCKBR</t>
-  </si>
-  <si>
-    <t>NTSR1</t>
-  </si>
-  <si>
-    <t>NTSR2</t>
-  </si>
-  <si>
-    <t>NMBR</t>
-  </si>
-  <si>
-    <t>RXFP1</t>
-  </si>
-  <si>
-    <t>RXFP2</t>
-  </si>
-  <si>
-    <t>RXFP3</t>
-  </si>
-  <si>
-    <t>RXFP4</t>
-  </si>
-  <si>
-    <t>TRHR</t>
-  </si>
-  <si>
-    <t>TRHR2</t>
-  </si>
-  <si>
-    <t>ADCYAP1R1</t>
-  </si>
-  <si>
-    <t>CRHR1</t>
-  </si>
-  <si>
-    <t>CRHR2</t>
-  </si>
-  <si>
-    <t>TACR1</t>
-  </si>
-  <si>
-    <t>TACR3</t>
-  </si>
-  <si>
-    <t>OPRM1</t>
-  </si>
-  <si>
     <t>+SNX5</t>
   </si>
   <si>
     <t>+NKX1-2</t>
-  </si>
-  <si>
-    <t>NKX1-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,7 +385,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -810,7 +420,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -987,75 +597,75 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" customWidth="1"/>
+    <col min="19" max="20" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="15" customHeight="1">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -1073,51 +683,51 @@
         <v>9</v>
       </c>
       <c r="N1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1125,22 +735,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -1149,102 +759,102 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
         <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="S2" t="s">
-        <v>69</v>
-      </c>
-      <c r="T2" t="s">
-        <v>71</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>206</v>
-      </c>
       <c r="Z2" s="1" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="S3" s="1"/>
       <c r="U3" s="1"/>
@@ -1252,28 +862,28 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Z3" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="E4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="O4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -1281,57 +891,57 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="R5" s="1"/>
       <c r="U5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="I6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Z6" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="U7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="U8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29">
       <c r="U9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1343,7 +953,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1355,7 +965,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1367,7 +977,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1379,7 +989,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1408,7 +1018,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1437,7 +1047,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1466,7 +1076,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1495,7 +1105,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1524,7 +1134,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1553,7 +1163,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1582,7 +1192,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1611,7 +1221,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1640,7 +1250,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1669,7 +1279,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1698,7 +1308,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1727,7 +1337,7 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1756,7 +1366,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1785,7 +1395,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1814,7 +1424,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1843,7 +1453,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1872,7 +1482,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1901,7 +1511,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1930,7 +1540,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1959,7 +1569,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1988,7 +1598,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2017,7 +1627,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2046,7 +1656,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2075,7 +1685,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2104,7 +1714,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2133,7 +1743,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2162,7 +1772,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2191,7 +1801,7 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2220,7 +1830,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2249,7 +1859,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2278,7 +1888,7 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2307,7 +1917,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2336,7 +1946,7 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2365,7 +1975,7 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2394,7 +2004,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2423,7 +2033,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2452,7 +2062,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2481,7 +2091,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2510,7 +2120,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2539,7 +2149,7 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2568,7 +2178,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2597,7 +2207,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2626,7 +2236,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2655,7 +2265,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2684,7 +2294,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2713,7 +2323,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2742,7 +2352,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2771,7 +2381,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2800,7 +2410,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2829,7 +2439,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2858,7 +2468,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2887,7 +2497,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2916,7 +2526,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2945,7 +2555,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2974,7 +2584,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3003,7 +2613,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3032,7 +2642,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3061,7 +2671,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3090,7 +2700,7 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3119,7 +2729,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3148,7 +2758,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3177,7 +2787,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3206,7 +2816,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3235,7 +2845,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3264,7 +2874,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3293,7 +2903,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3322,7 +2932,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3351,7 +2961,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3380,7 +2990,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3409,7 +3019,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3438,7 +3048,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3467,7 +3077,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3496,7 +3106,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3525,7 +3135,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3554,7 +3164,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3583,7 +3193,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3612,7 +3222,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3641,7 +3251,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3670,7 +3280,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3699,7 +3309,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3728,7 +3338,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3757,7 +3367,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3786,7 +3396,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3815,7 +3425,7 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3844,7 +3454,7 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3873,7 +3483,7 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3902,7 +3512,7 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3931,7 +3541,7 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3960,7 +3570,7 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3989,7 +3599,7 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4018,7 +3628,7 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4047,7 +3657,7 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4076,7 +3686,7 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4105,7 +3715,7 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4134,7 +3744,7 @@
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4171,436 +3781,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C011FA0D-996A-43C7-9FF4-C476D5920D18}">
-  <dimension ref="A1:DX11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="AN2:CP12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="30" max="30" width="14.85546875" customWidth="1"/>
-    <col min="60" max="60" width="14.85546875" customWidth="1"/>
-    <col min="65" max="65" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="30" max="30" width="14.88671875" customWidth="1"/>
+    <col min="60" max="60" width="14.88671875" customWidth="1"/>
+    <col min="65" max="65" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>192</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>193</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>194</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>197</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>198</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>200</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>201</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>203</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>204</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BS1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BU1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="BW1" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="BX1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BY1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BZ1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="CB1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="CC1" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="CD1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="CE1" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="CF1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CG1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="CH1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="CI1" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CJ1" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="CK1" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="CL1" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="CM1" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="CO1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="CP1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="CQ1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="CR1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="CS1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="CT1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CU1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="CV1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="CW1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="CX1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="CY1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="CZ1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="DA1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="DB1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="DC1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="DD1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="DE1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="DF1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="DG1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="DH1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="DI1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="DJ1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="DK1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="DL1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="DM1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="DN1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="DO1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="DP1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="DQ1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="DR1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="DS1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="DT1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="DU1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="DV1" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="DW1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="DX1" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:128" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="CM6" s="1"/>
-      <c r="CN6" s="1"/>
-      <c r="CO6" s="1"/>
-      <c r="CP6" s="1"/>
-    </row>
-    <row r="7" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="2" spans="40:94" s="3" customFormat="1">
+      <c r="AN2"/>
+      <c r="AO2"/>
+      <c r="AP2"/>
+      <c r="AQ2"/>
+      <c r="AR2"/>
+      <c r="AS2"/>
+      <c r="AT2"/>
+      <c r="AU2"/>
+      <c r="AV2"/>
+      <c r="AW2"/>
+      <c r="AX2"/>
+      <c r="AY2"/>
+      <c r="AZ2"/>
+      <c r="BA2"/>
+      <c r="BB2"/>
+      <c r="BC2"/>
+      <c r="BD2"/>
+      <c r="BE2"/>
+      <c r="BF2"/>
+      <c r="BG2"/>
+      <c r="BH2"/>
+      <c r="BI2"/>
+      <c r="BJ2"/>
+      <c r="BK2"/>
+      <c r="BL2"/>
+      <c r="BM2"/>
+    </row>
+    <row r="3" spans="40:94" ht="13.5" customHeight="1"/>
+    <row r="7" spans="40:94">
       <c r="CM7" s="1"/>
       <c r="CN7" s="1"/>
       <c r="CO7" s="1"/>
       <c r="CP7" s="1"/>
     </row>
-    <row r="8" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="8" spans="40:94">
       <c r="CM8" s="1"/>
+      <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
-    </row>
-    <row r="9" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="CP8" s="1"/>
+    </row>
+    <row r="9" spans="40:94">
       <c r="CM9" s="1"/>
       <c r="CO9" s="1"/>
     </row>
-    <row r="10" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="10" spans="40:94">
       <c r="CM10" s="1"/>
       <c r="CO10" s="1"/>
     </row>
-    <row r="11" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="11" spans="40:94">
       <c r="CM11" s="1"/>
       <c r="CO11" s="1"/>
+    </row>
+    <row r="12" spans="40:94">
+      <c r="CM12" s="1"/>
+      <c r="CO12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
